--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahbook/Box Sync/projects/biobank/raw_patients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA27B1E4-BE2E-D44F-80B1-A06E0A7ADD80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D6293-0FCC-124C-AA80-636B8196C1B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient_log" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -73,13 +73,22 @@
   </si>
   <si>
     <t>08/05/2019</t>
+  </si>
+  <si>
+    <t>06928</t>
+  </si>
+  <si>
+    <t>UI7616</t>
+  </si>
+  <si>
+    <t>08/07/19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -915,23 +924,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,7 +986,7 @@
         <v>0.49583333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,6 +995,19 @@
       </c>
       <c r="C3" s="2">
         <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahbook/Box Sync/projects/biobank/raw_patients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D6293-0FCC-124C-AA80-636B8196C1B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A495745-D12E-5E4E-A751-5C2D0B09BE7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahbook/Box Sync/projects/biobank/raw_patients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A495745-D12E-5E4E-A751-5C2D0B09BE7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A495745-D12E-5E4E-A751-5C2D0B09BE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -45,21 +45,39 @@
     <t>Time_Stent_1</t>
   </si>
   <si>
+    <t>Location_Stent_1</t>
+  </si>
+  <si>
     <t>Time_Stent_2</t>
   </si>
   <si>
+    <t>Location_Stent_2</t>
+  </si>
+  <si>
     <t>Time_Stent_3</t>
   </si>
   <si>
+    <t>Location_Stent_3</t>
+  </si>
+  <si>
     <t>Time_Balloon_1</t>
   </si>
   <si>
+    <t>Location_Balloon_1</t>
+  </si>
+  <si>
     <t>Time_Balloon_2</t>
   </si>
   <si>
+    <t>Location_Balloon_2</t>
+  </si>
+  <si>
     <t>Time_Balloon_3</t>
   </si>
   <si>
+    <t>Location_Balloon_23</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -69,6 +87,9 @@
     <t>08/02/2019</t>
   </si>
   <si>
+    <t>LM</t>
+  </si>
+  <si>
     <t>06925</t>
   </si>
   <si>
@@ -78,17 +99,35 @@
     <t>06928</t>
   </si>
   <si>
+    <t>08/07/19</t>
+  </si>
+  <si>
     <t>UI7616</t>
   </si>
   <si>
-    <t>08/07/19</t>
+    <t>08/09/19</t>
+  </si>
+  <si>
+    <t>10:30?</t>
+  </si>
+  <si>
+    <t>06931</t>
+  </si>
+  <si>
+    <t>08/12/19</t>
+  </si>
+  <si>
+    <t>06944</t>
+  </si>
+  <si>
+    <t>08/22/19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,23 +963,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,40 +1024,110 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>0.49583333333333335</v>
       </c>
+      <c r="D2" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.41111111111111115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.47638888888888892</v>
       </c>
     </row>
   </sheetData>

--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahbook/Box Sync/projects/biobank/raw_patients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A495745-D12E-5E4E-A751-5C2D0B09BE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6E0BD-33F5-9D4A-99DD-6DAACEA20A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Start_ECG</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Time_LHC</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
     <t>Location_Balloon_23</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>06923</t>
   </si>
   <si>
@@ -108,7 +108,7 @@
     <t>08/09/19</t>
   </si>
   <si>
-    <t>10:30?</t>
+    <t>Estimated ECG start time from sample log. ~10:30 am</t>
   </si>
   <si>
     <t>06931</t>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>08/22/19</t>
+  </si>
+  <si>
+    <t>06954</t>
+  </si>
+  <si>
+    <t>08/27/19</t>
+  </si>
+  <si>
+    <t>06955</t>
+  </si>
+  <si>
+    <t>08/28/19</t>
+  </si>
+  <si>
+    <t>9:06?</t>
+  </si>
+  <si>
+    <t>06965</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>06968</t>
+  </si>
+  <si>
+    <t>09/04/2019</t>
   </si>
 </sst>
 </file>
@@ -604,10 +631,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,34 +1000,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="17.100000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1037,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1053,25 +1090,26 @@
       <c r="C2" s="2">
         <v>0.49583333333333335</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="2">
         <v>0.60902777777777783</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.65625</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.65347222222222223</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>0.66041666666666665</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1085,6 +1123,7 @@
       <c r="C3" s="2">
         <v>0.55833333333333335</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -1096,15 +1135,19 @@
       <c r="C4" s="2">
         <v>0.43541666666666662</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="51">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1118,6 +1161,7 @@
       <c r="C6" s="2">
         <v>0.41111111111111115</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
@@ -1128,6 +1172,53 @@
       </c>
       <c r="C7" s="2">
         <v>0.47638888888888892</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.44791666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahbook/Box Sync/projects/biobank/raw_patients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6E0BD-33F5-9D4A-99DD-6DAACEA20A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD18C6A-9CED-2A4E-BE3A-B487C6FEB4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient_log" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -148,13 +148,16 @@
   </si>
   <si>
     <t>09/04/2019</t>
+  </si>
+  <si>
+    <t>sig data loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1003,31 +1006,31 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.100000000000001">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1093,9 @@
       <c r="C2" s="2">
         <v>0.49583333333333335</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="2">
         <v>0.60902777777777783</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1130,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1142,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="51">
+    <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1168,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1180,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1187,7 +1192,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1204,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>0.52361111111111114</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>

--- a/raw_patients/patient_log.xlsx
+++ b/raw_patients/patient_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,9 @@
     <t>08/02/2019</t>
   </si>
   <si>
+    <t>sig data loss</t>
+  </si>
+  <si>
     <t>LM</t>
   </si>
   <si>
@@ -150,14 +153,74 @@
     <t>09/04/2019</t>
   </si>
   <si>
-    <t>sig data loss</t>
+    <t>06977</t>
+  </si>
+  <si>
+    <t>09/10/2019</t>
+  </si>
+  <si>
+    <t>06978</t>
+  </si>
+  <si>
+    <t>9:50?</t>
+  </si>
+  <si>
+    <t>06983</t>
+  </si>
+  <si>
+    <t>09/12/2019</t>
+  </si>
+  <si>
+    <t>06984</t>
+  </si>
+  <si>
+    <t>06988</t>
+  </si>
+  <si>
+    <t>09/17/2019</t>
+  </si>
+  <si>
+    <t>06989</t>
+  </si>
+  <si>
+    <t>06994</t>
+  </si>
+  <si>
+    <t>09/19/2019</t>
+  </si>
+  <si>
+    <t>9:37?</t>
+  </si>
+  <si>
+    <t>07004</t>
+  </si>
+  <si>
+    <t>09/24/2019</t>
+  </si>
+  <si>
+    <t>07005</t>
+  </si>
+  <si>
+    <t>07011</t>
+  </si>
+  <si>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>07020</t>
+  </si>
+  <si>
+    <t>10/07/2019</t>
+  </si>
+  <si>
+    <t>07014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1003,34 +1066,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17.100000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17.100000000000001">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1157,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>0.60902777777777783</v>
@@ -1103,127 +1166,265 @@
         <v>0.65625</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>0.65347222222222223</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2">
         <v>0.66041666666666665</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>0.55833333333333335</v>
       </c>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>0.63750000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>0.43541666666666662</v>
       </c>
       <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="51">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0.45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>0.41111111111111115</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>0.47638888888888892</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <v>0.5083333333333333</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>0.52361111111111114</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.68611111111111101</v>
       </c>
     </row>
   </sheetData>
